--- a/R/CountryResultPro.xlsx
+++ b/R/CountryResultPro.xlsx
@@ -1,56 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhash\OneDrive\Documents\GitHub\IRHEIS\R\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D79440-D1E8-43E9-8469-2C8AB13D5A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>PovertyLine</t>
-  </si>
-  <si>
-    <t>Engle</t>
-  </si>
-  <si>
-    <t>Bundle_Value</t>
-  </si>
-  <si>
-    <t>Total_Exp_Month_Per</t>
-  </si>
-  <si>
-    <t>PovertyHCR</t>
-  </si>
-  <si>
-    <t>PovertyGap</t>
-  </si>
-  <si>
-    <t>PovertyDepth</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,26 +52,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,277 +350,290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PovertyLine</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Engle</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Bundle_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Exp_Month_Per</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PovertyHCR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PovertyGap</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PovertyDepth</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>90</v>
       </c>
       <c r="B2">
-        <v>1859553.1472467519</v>
+        <v>1868927.760706623</v>
       </c>
       <c r="C2">
-        <v>0.26899349775697778</v>
+        <v>0.2689934977569778</v>
       </c>
       <c r="D2">
-        <v>519366.60407745349</v>
+        <v>519366.6040774535</v>
       </c>
       <c r="E2">
         <v>3937550.800183746</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.22872128448766199</v>
+      <c r="F2">
+        <v>0.2287858302497376</v>
       </c>
       <c r="G2">
-        <v>0.18532121430779691</v>
+        <v>0.1866216523955601</v>
       </c>
       <c r="H2">
-        <v>7.8483222385550486E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.07817102902050516</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>91</v>
       </c>
       <c r="B3">
-        <v>2482948.725888731</v>
+        <v>2469964.617178569</v>
       </c>
       <c r="C3">
-        <v>0.28507008420456648</v>
+        <v>0.2850700842045665</v>
       </c>
       <c r="D3">
-        <v>728346.03597226879</v>
+        <v>728346.0359722688</v>
       </c>
       <c r="E3">
-        <v>5055970.9554488016</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.24836064609916331</v>
+        <v>5055970.955448802</v>
+      </c>
+      <c r="F3">
+        <v>0.2409087200421535</v>
       </c>
       <c r="G3">
-        <v>0.1805036552814536</v>
+        <v>0.1802134953593265</v>
       </c>
       <c r="H3">
-        <v>7.3041129902598548E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.07259368038379097</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>92</v>
       </c>
       <c r="B4">
-        <v>3272231.9246218959</v>
+        <v>3308301.305413208</v>
       </c>
       <c r="C4">
         <v>0.281526344793467</v>
       </c>
       <c r="D4">
-        <v>961349.27881954529</v>
+        <v>961349.2788195453</v>
       </c>
       <c r="E4">
-        <v>6470219.5450928677</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.25381583015841869</v>
+        <v>6470219.545092868</v>
+      </c>
+      <c r="F4">
+        <v>0.2589538949946174</v>
       </c>
       <c r="G4">
-        <v>0.1768878683014424</v>
+        <v>0.1760697992531558</v>
       </c>
       <c r="H4">
-        <v>7.5362404218577025E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.0735773172315267</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>93</v>
       </c>
       <c r="B5">
-        <v>3636437.946991439</v>
+        <v>3668321.546095908</v>
       </c>
       <c r="C5">
-        <v>0.26574686024692562</v>
+        <v>0.2657468602469256</v>
       </c>
       <c r="D5">
         <v>1038188.200651432</v>
       </c>
       <c r="E5">
-        <v>7315962.4012307152</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.2496846897267653</v>
+        <v>7315962.401230715</v>
+      </c>
+      <c r="F5">
+        <v>0.2536214108928867</v>
       </c>
       <c r="G5">
-        <v>0.1956449477129478</v>
+        <v>0.1954975954076221</v>
       </c>
       <c r="H5">
-        <v>8.3037198867107462E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.08303794861552433</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>94</v>
       </c>
       <c r="B6">
-        <v>3929997.0221746662</v>
+        <v>3942859.012497565</v>
       </c>
       <c r="C6">
-        <v>0.25486543317088522</v>
+        <v>0.2548654331708852</v>
       </c>
       <c r="D6">
         <v>1098903.595371044</v>
       </c>
       <c r="E6">
-        <v>8142758.9908271655</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.2373333168439474</v>
+        <v>8142758.990827166</v>
+      </c>
+      <c r="F6">
+        <v>0.2367244396586458</v>
       </c>
       <c r="G6">
-        <v>0.18490256290836879</v>
+        <v>0.1843701887282238</v>
       </c>
       <c r="H6">
-        <v>7.5317985830442677E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.07397034234126261</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>95</v>
       </c>
       <c r="B7">
-        <v>4357819.0557284243</v>
+        <v>4391900.564622512</v>
       </c>
       <c r="C7">
-        <v>0.25043003558019711</v>
+        <v>0.2504300355801971</v>
       </c>
       <c r="D7">
-        <v>1198473.4633727509</v>
+        <v>1198473.463372751</v>
       </c>
       <c r="E7">
         <v>8883859.726056451</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.25531458376248262</v>
+      <c r="F7">
+        <v>0.2567361784805062</v>
       </c>
       <c r="G7">
-        <v>0.18128877655550091</v>
+        <v>0.1831894106200997</v>
       </c>
       <c r="H7">
-        <v>8.0194079917579972E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.08036848151144527</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>96</v>
       </c>
       <c r="B8">
-        <v>4961462.3508947259</v>
+        <v>4930394.587803355</v>
       </c>
       <c r="C8">
         <v>0.2456215572131934</v>
       </c>
       <c r="D8">
-        <v>1329849.7039169511</v>
+        <v>1329849.703916951</v>
       </c>
       <c r="E8">
         <v>10254645.39459441</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.25892094267697802</v>
+      <c r="F8">
+        <v>0.2545395753691322</v>
       </c>
       <c r="G8">
-        <v>0.1846581535450629</v>
+        <v>0.1823757606991367</v>
       </c>
       <c r="H8">
-        <v>8.2850770380212407E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.0800636787881376</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>97</v>
       </c>
       <c r="B9">
-        <v>6412457.4282644326</v>
+        <v>6414306.013154144</v>
       </c>
       <c r="C9">
-        <v>0.24846244989521499</v>
+        <v>0.248462449895215</v>
       </c>
       <c r="D9">
         <v>1738669.81105661</v>
       </c>
       <c r="E9">
-        <v>12679061.191243939</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.31625658486433561</v>
+        <v>12679061.19124394</v>
+      </c>
+      <c r="F9">
+        <v>0.3106980836468613</v>
       </c>
       <c r="G9">
-        <v>0.19832589895274391</v>
+        <v>0.1973905095202065</v>
       </c>
       <c r="H9">
-        <v>8.7354968892742954E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.08584184893515783</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>98</v>
       </c>
       <c r="B10">
-        <v>9246390.537744591</v>
+        <v>9413461.339056168</v>
       </c>
       <c r="C10">
-        <v>0.25078609866613821</v>
+        <v>0.2499839250589957</v>
       </c>
       <c r="D10">
-        <v>2293509.7243506559</v>
+        <v>2269774.768923708</v>
       </c>
       <c r="E10">
-        <v>16450388.15951512</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.37477660022065429</v>
+        <v>16017853.04425741</v>
+      </c>
+      <c r="F10">
+        <v>0.3981609276805796</v>
       </c>
       <c r="G10">
-        <v>0.22746816826013941</v>
+        <v>0.235310427380469</v>
       </c>
       <c r="H10">
-        <v>0.11882667792642949</v>
+        <v>0.1153100384558858</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>